--- a/ACTL3142 DATA.xlsx
+++ b/ACTL3142 DATA.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\2022\unsw\S2\actl3142\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4430536E-D187-45D3-81A5-1E690925759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B076A1-535E-4796-949A-6B18A8A2CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8760726D-DD14-463D-BAF6-BAF972B7A86A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8760726D-DD14-463D-BAF6-BAF972B7A86A}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTL3142 DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>total</t>
   </si>
@@ -131,6 +132,9 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>avg. claims/quarter</t>
   </si>
 </sst>
 </file>
@@ -519,13 +523,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A2D605-3C55-4FBE-A1A6-C985B13896A5}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -533,7 +537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>2018</v>
@@ -561,7 +565,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -587,7 +591,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -613,7 +617,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -639,7 +643,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -665,7 +669,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -691,7 +695,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -717,7 +721,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -740,7 +744,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -766,7 +770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -789,7 +793,7 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -812,7 +816,7 @@
         <v>-13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -835,7 +839,7 @@
         <v>-16.7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -858,7 +862,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -889,7 +893,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -920,7 +924,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -954,7 +958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K19" s="4" t="s">
         <v>6</v>
       </c>
@@ -962,7 +966,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -977,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2018</v>
       </c>
@@ -992,7 +996,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>29</v>
@@ -1005,7 +1009,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>30</v>
@@ -1018,7 +1022,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>31</v>
@@ -1031,7 +1035,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2019</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>29</v>
@@ -1059,7 +1063,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>30</v>
@@ -1072,7 +1076,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>31</v>
@@ -1085,7 +1089,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>29</v>
@@ -1113,7 +1117,7 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>30</v>
@@ -1126,7 +1130,7 @@
         <v>-13.4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>31</v>
@@ -1139,7 +1143,7 @@
         <v>-16.7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>29</v>
@@ -1167,7 +1171,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>30</v>
@@ -1180,7 +1184,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>31</v>
@@ -1193,7 +1197,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2022</v>
       </c>
@@ -1212,6 +1216,343 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15509502-7643-40F9-A757-67F771B766AE}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="1">
+        <f>1+B1</f>
+        <v>2019</v>
+      </c>
+      <c r="D1" s="1">
+        <f t="shared" ref="D1:E1" si="0">1+C1</f>
+        <v>2020</v>
+      </c>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="F1" s="1">
+        <f>1+E1</f>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>559</v>
+      </c>
+      <c r="C2">
+        <v>845</v>
+      </c>
+      <c r="D2">
+        <v>824</v>
+      </c>
+      <c r="E2">
+        <v>764</v>
+      </c>
+      <c r="F2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>704</v>
+      </c>
+      <c r="C3">
+        <v>901</v>
+      </c>
+      <c r="D3">
+        <v>876</v>
+      </c>
+      <c r="E3">
+        <v>1009</v>
+      </c>
+      <c r="F3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>910</v>
+      </c>
+      <c r="C4">
+        <v>1019</v>
+      </c>
+      <c r="D4">
+        <v>993</v>
+      </c>
+      <c r="E4">
+        <v>1039</v>
+      </c>
+      <c r="F4">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>928</v>
+      </c>
+      <c r="C5">
+        <v>957</v>
+      </c>
+      <c r="D5">
+        <v>614</v>
+      </c>
+      <c r="E5">
+        <v>986</v>
+      </c>
+      <c r="F5">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1092</v>
+      </c>
+      <c r="C6">
+        <v>1157</v>
+      </c>
+      <c r="D6">
+        <v>667</v>
+      </c>
+      <c r="E6">
+        <v>1103</v>
+      </c>
+      <c r="F6">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1029</v>
+      </c>
+      <c r="C7">
+        <v>971</v>
+      </c>
+      <c r="D7">
+        <v>857</v>
+      </c>
+      <c r="E7">
+        <v>1039</v>
+      </c>
+      <c r="F7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1031</v>
+      </c>
+      <c r="C8">
+        <v>1144</v>
+      </c>
+      <c r="D8">
+        <v>950</v>
+      </c>
+      <c r="E8">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1065</v>
+      </c>
+      <c r="C9">
+        <v>1106</v>
+      </c>
+      <c r="D9">
+        <v>911</v>
+      </c>
+      <c r="E9">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>885</v>
+      </c>
+      <c r="C10">
+        <v>946</v>
+      </c>
+      <c r="D10">
+        <v>932</v>
+      </c>
+      <c r="E10">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>965</v>
+      </c>
+      <c r="C11">
+        <v>1095</v>
+      </c>
+      <c r="D11">
+        <v>985</v>
+      </c>
+      <c r="E11">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1045</v>
+      </c>
+      <c r="C12">
+        <v>969</v>
+      </c>
+      <c r="D12">
+        <v>989</v>
+      </c>
+      <c r="E12">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>798</v>
+      </c>
+      <c r="C13">
+        <v>899</v>
+      </c>
+      <c r="D13">
+        <v>875</v>
+      </c>
+      <c r="E13">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>11011</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>12009</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
+        <v>10473</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>9929</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F2:F7)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>B14/4</f>
+        <v>2752.75</v>
+      </c>
+      <c r="C15">
+        <f>C14/4</f>
+        <v>3002.25</v>
+      </c>
+      <c r="D15">
+        <f>D14/4</f>
+        <v>2618.25</v>
+      </c>
+      <c r="E15">
+        <f>E14/4</f>
+        <v>2482.25</v>
+      </c>
+      <c r="F15">
+        <f>F14/2</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <f>B14/12</f>
+        <v>917.58333333333337</v>
+      </c>
+      <c r="C16">
+        <f>C14/12</f>
+        <v>1000.75</v>
+      </c>
+      <c r="D16">
+        <f>D14/12</f>
+        <v>872.75</v>
+      </c>
+      <c r="E16">
+        <f>E14/12</f>
+        <v>827.41666666666663</v>
+      </c>
+      <c r="F16">
+        <f>F14/6</f>
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1374,18 +1715,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1407,15 +1748,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8880F2A-63BB-4E17-96BC-26A598B2A084}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7360E0B-EA6D-4E64-A7E0-ACC100127A02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8880F2A-63BB-4E17-96BC-26A598B2A084}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/ACTL3142 DATA.xlsx
+++ b/ACTL3142 DATA.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\2022\unsw\S2\actl3142\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B076A1-535E-4796-949A-6B18A8A2CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4430536E-D187-45D3-81A5-1E690925759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8760726D-DD14-463D-BAF6-BAF972B7A86A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8760726D-DD14-463D-BAF6-BAF972B7A86A}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTL3142 DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>total</t>
   </si>
@@ -132,9 +131,6 @@
   </si>
   <si>
     <t>Q4</t>
-  </si>
-  <si>
-    <t>avg. claims/quarter</t>
   </si>
 </sst>
 </file>
@@ -523,13 +519,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A2D605-3C55-4FBE-A1A6-C985B13896A5}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="A1:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -537,7 +533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>2018</v>
@@ -565,7 +561,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -591,7 +587,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -617,7 +613,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -643,7 +639,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -669,7 +665,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -695,7 +691,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -721,7 +717,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -744,7 +740,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -770,7 +766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -793,7 +789,7 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -816,7 +812,7 @@
         <v>-13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -839,7 +835,7 @@
         <v>-16.7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -862,7 +858,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -893,7 +889,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -924,7 +920,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -958,7 +954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K19" s="4" t="s">
         <v>6</v>
       </c>
@@ -966,7 +962,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -981,7 +977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2018</v>
       </c>
@@ -996,7 +992,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>29</v>
@@ -1009,7 +1005,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>30</v>
@@ -1022,7 +1018,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>31</v>
@@ -1035,7 +1031,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2019</v>
       </c>
@@ -1050,7 +1046,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>29</v>
@@ -1063,7 +1059,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>30</v>
@@ -1076,7 +1072,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>31</v>
@@ -1089,7 +1085,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -1104,7 +1100,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>29</v>
@@ -1117,7 +1113,7 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>30</v>
@@ -1130,7 +1126,7 @@
         <v>-13.4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>31</v>
@@ -1143,7 +1139,7 @@
         <v>-16.7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
@@ -1158,7 +1154,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>29</v>
@@ -1171,7 +1167,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>30</v>
@@ -1184,7 +1180,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>31</v>
@@ -1197,7 +1193,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2022</v>
       </c>
@@ -1216,343 +1212,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15509502-7643-40F9-A757-67F771B766AE}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C1" s="1">
-        <f>1+B1</f>
-        <v>2019</v>
-      </c>
-      <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1+C1</f>
-        <v>2020</v>
-      </c>
-      <c r="E1" s="1">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="F1" s="1">
-        <f>1+E1</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>559</v>
-      </c>
-      <c r="C2">
-        <v>845</v>
-      </c>
-      <c r="D2">
-        <v>824</v>
-      </c>
-      <c r="E2">
-        <v>764</v>
-      </c>
-      <c r="F2">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>704</v>
-      </c>
-      <c r="C3">
-        <v>901</v>
-      </c>
-      <c r="D3">
-        <v>876</v>
-      </c>
-      <c r="E3">
-        <v>1009</v>
-      </c>
-      <c r="F3">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>910</v>
-      </c>
-      <c r="C4">
-        <v>1019</v>
-      </c>
-      <c r="D4">
-        <v>993</v>
-      </c>
-      <c r="E4">
-        <v>1039</v>
-      </c>
-      <c r="F4">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>928</v>
-      </c>
-      <c r="C5">
-        <v>957</v>
-      </c>
-      <c r="D5">
-        <v>614</v>
-      </c>
-      <c r="E5">
-        <v>986</v>
-      </c>
-      <c r="F5">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1092</v>
-      </c>
-      <c r="C6">
-        <v>1157</v>
-      </c>
-      <c r="D6">
-        <v>667</v>
-      </c>
-      <c r="E6">
-        <v>1103</v>
-      </c>
-      <c r="F6">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>1029</v>
-      </c>
-      <c r="C7">
-        <v>971</v>
-      </c>
-      <c r="D7">
-        <v>857</v>
-      </c>
-      <c r="E7">
-        <v>1039</v>
-      </c>
-      <c r="F7">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1031</v>
-      </c>
-      <c r="C8">
-        <v>1144</v>
-      </c>
-      <c r="D8">
-        <v>950</v>
-      </c>
-      <c r="E8">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>1065</v>
-      </c>
-      <c r="C9">
-        <v>1106</v>
-      </c>
-      <c r="D9">
-        <v>911</v>
-      </c>
-      <c r="E9">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>885</v>
-      </c>
-      <c r="C10">
-        <v>946</v>
-      </c>
-      <c r="D10">
-        <v>932</v>
-      </c>
-      <c r="E10">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>965</v>
-      </c>
-      <c r="C11">
-        <v>1095</v>
-      </c>
-      <c r="D11">
-        <v>985</v>
-      </c>
-      <c r="E11">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>1045</v>
-      </c>
-      <c r="C12">
-        <v>969</v>
-      </c>
-      <c r="D12">
-        <v>989</v>
-      </c>
-      <c r="E12">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>798</v>
-      </c>
-      <c r="C13">
-        <v>899</v>
-      </c>
-      <c r="D13">
-        <v>875</v>
-      </c>
-      <c r="E13">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>11011</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C2:C13)</f>
-        <v>12009</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D2:D13)</f>
-        <v>10473</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E2:E13)</f>
-        <v>9929</v>
-      </c>
-      <c r="F14">
-        <f>SUM(F2:F7)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <f>B14/4</f>
-        <v>2752.75</v>
-      </c>
-      <c r="C15">
-        <f>C14/4</f>
-        <v>3002.25</v>
-      </c>
-      <c r="D15">
-        <f>D14/4</f>
-        <v>2618.25</v>
-      </c>
-      <c r="E15">
-        <f>E14/4</f>
-        <v>2482.25</v>
-      </c>
-      <c r="F15">
-        <f>F14/2</f>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <f>B14/12</f>
-        <v>917.58333333333337</v>
-      </c>
-      <c r="C16">
-        <f>C14/12</f>
-        <v>1000.75</v>
-      </c>
-      <c r="D16">
-        <f>D14/12</f>
-        <v>872.75</v>
-      </c>
-      <c r="E16">
-        <f>E14/12</f>
-        <v>827.41666666666663</v>
-      </c>
-      <c r="F16">
-        <f>F14/6</f>
-        <v>750</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1715,18 +1374,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1748,15 +1407,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8880F2A-63BB-4E17-96BC-26A598B2A084}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7360E0B-EA6D-4E64-A7E0-ACC100127A02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8880F2A-63BB-4E17-96BC-26A598B2A084}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>